--- a/Code/Results/Cases/Case_1_76/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_76/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.792042291707118</v>
+        <v>6.072429246268456</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.167045597976472</v>
+        <v>10.01628844949731</v>
       </c>
       <c r="E2">
-        <v>9.272786350299972</v>
+        <v>14.25931973078596</v>
       </c>
       <c r="F2">
-        <v>19.48373474099047</v>
+        <v>29.487398179572</v>
       </c>
       <c r="G2">
-        <v>20.15272308883927</v>
+        <v>28.53853682931905</v>
       </c>
       <c r="H2">
-        <v>8.402369247003721</v>
+        <v>14.32415445241967</v>
       </c>
       <c r="I2">
-        <v>13.17961177708896</v>
+        <v>20.3434681855076</v>
       </c>
       <c r="J2">
-        <v>5.856789837305854</v>
+        <v>10.1455275034992</v>
       </c>
       <c r="K2">
-        <v>15.69686748910295</v>
+        <v>9.96213452487169</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.13055855547833</v>
+        <v>14.81273801262293</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.44125284732736</v>
+        <v>21.75769422644195</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.346305113473374</v>
+        <v>5.919042429191708</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.931805985044479</v>
+        <v>9.992922786501298</v>
       </c>
       <c r="E3">
-        <v>9.127988009516967</v>
+        <v>14.27345791830484</v>
       </c>
       <c r="F3">
-        <v>19.30739291880492</v>
+        <v>29.56934621847424</v>
       </c>
       <c r="G3">
-        <v>19.92677856330483</v>
+        <v>28.64038434121811</v>
       </c>
       <c r="H3">
-        <v>8.477970097737142</v>
+        <v>14.37551779368246</v>
       </c>
       <c r="I3">
-        <v>13.51103053455741</v>
+        <v>20.46028066720997</v>
       </c>
       <c r="J3">
-        <v>5.893157563291277</v>
+        <v>10.1725361870417</v>
       </c>
       <c r="K3">
-        <v>14.83390764938529</v>
+        <v>9.557865457257082</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.32981146366929</v>
+        <v>14.65813713836883</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.49166320431734</v>
+        <v>21.84430683723154</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.057855272268726</v>
+        <v>5.823446154114829</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.786176302867834</v>
+        <v>9.980097968653466</v>
       </c>
       <c r="E4">
-        <v>9.043359481717509</v>
+        <v>14.28463725997879</v>
       </c>
       <c r="F4">
-        <v>19.2168380685302</v>
+        <v>29.62683088936815</v>
       </c>
       <c r="G4">
-        <v>19.81413708648786</v>
+        <v>28.71238466286596</v>
       </c>
       <c r="H4">
-        <v>8.529835151351516</v>
+        <v>14.40935069746151</v>
       </c>
       <c r="I4">
-        <v>13.720783150674</v>
+        <v>20.5357378155487</v>
       </c>
       <c r="J4">
-        <v>5.918104444315244</v>
+        <v>10.19033606055065</v>
       </c>
       <c r="K4">
-        <v>14.27717437488724</v>
+        <v>9.300647029068831</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.8107463453685</v>
+        <v>14.5639179455439</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.53535014652666</v>
+        <v>21.90221542536285</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.936633690281655</v>
+        <v>5.784189063495451</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.726620428145353</v>
+        <v>9.97525829078082</v>
       </c>
       <c r="E5">
-        <v>9.009969994808491</v>
+        <v>14.28982154933821</v>
       </c>
       <c r="F5">
-        <v>19.18429925578013</v>
+        <v>29.65205483312161</v>
       </c>
       <c r="G5">
-        <v>19.77462455907547</v>
+        <v>28.74409466151548</v>
       </c>
       <c r="H5">
-        <v>8.552293630865751</v>
+        <v>14.42371527647126</v>
       </c>
       <c r="I5">
-        <v>13.80785381833093</v>
+        <v>20.56742866593846</v>
       </c>
       <c r="J5">
-        <v>5.928913523380539</v>
+        <v>10.19789588641043</v>
       </c>
       <c r="K5">
-        <v>14.04365473949566</v>
+        <v>9.193699190070346</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.59236012188413</v>
+        <v>14.52573517426814</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.55622352630253</v>
+        <v>21.92700063488296</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.916284221714773</v>
+        <v>5.777653955650037</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.716721224569556</v>
+        <v>9.974478119267745</v>
       </c>
       <c r="E6">
-        <v>9.004492541234988</v>
+        <v>14.29072037091546</v>
       </c>
       <c r="F6">
-        <v>19.17915676601989</v>
+        <v>29.65635174846051</v>
       </c>
       <c r="G6">
-        <v>19.76844395126307</v>
+        <v>28.749502850327</v>
       </c>
       <c r="H6">
-        <v>8.556101443005945</v>
+        <v>14.42613538169875</v>
       </c>
       <c r="I6">
-        <v>13.82240875587094</v>
+        <v>20.57274784399664</v>
       </c>
       <c r="J6">
-        <v>5.930746772320672</v>
+        <v>10.19916969580112</v>
       </c>
       <c r="K6">
-        <v>14.0044813551441</v>
+        <v>9.175816193634441</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.55568384564494</v>
+        <v>14.5194087841298</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.55987116505462</v>
+        <v>21.93118783443024</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.056235262452093</v>
+        <v>5.822917862161446</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.785373841956098</v>
+        <v>9.980031129082027</v>
       </c>
       <c r="E7">
-        <v>9.042904710146619</v>
+        <v>14.28470463150907</v>
       </c>
       <c r="F7">
-        <v>19.21638170491088</v>
+        <v>29.62716379193532</v>
       </c>
       <c r="G7">
-        <v>19.81357857986997</v>
+        <v>28.71280273675121</v>
       </c>
       <c r="H7">
-        <v>8.530132736789717</v>
+        <v>14.40954208514283</v>
       </c>
       <c r="I7">
-        <v>13.72195093179104</v>
+        <v>20.53616139414114</v>
       </c>
       <c r="J7">
-        <v>5.918247635146409</v>
+        <v>10.19043677461169</v>
       </c>
       <c r="K7">
-        <v>14.27405179116578</v>
+        <v>9.299213126532436</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.80782885328116</v>
+        <v>14.56340209412468</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.53561939258656</v>
+        <v>21.90254488386282</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.641435542534804</v>
+        <v>6.019867637907661</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.086233722793097</v>
+        <v>10.00791853038011</v>
       </c>
       <c r="E8">
-        <v>9.221985710948307</v>
+        <v>14.26367629279416</v>
       </c>
       <c r="F8">
-        <v>19.41920255594912</v>
+        <v>29.51416376520935</v>
       </c>
       <c r="G8">
-        <v>20.06930850184471</v>
+        <v>28.57168291665021</v>
       </c>
       <c r="H8">
-        <v>8.427277525441875</v>
+        <v>14.34138816862283</v>
       </c>
       <c r="I8">
-        <v>13.292598167472</v>
+        <v>20.38297171575575</v>
       </c>
       <c r="J8">
-        <v>5.868777041588621</v>
+        <v>10.15458783842349</v>
       </c>
       <c r="K8">
-        <v>15.40495462319648</v>
+        <v>9.82468412601267</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.86016084858679</v>
+        <v>14.75930593104336</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.4559117463393</v>
+        <v>21.78657578997064</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.670745426963606</v>
+        <v>6.392575369561015</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.66319656657797</v>
+        <v>10.07449823020375</v>
       </c>
       <c r="E9">
-        <v>9.60604242362143</v>
+        <v>14.24224226094719</v>
       </c>
       <c r="F9">
-        <v>19.96101023779029</v>
+        <v>29.34961517906467</v>
       </c>
       <c r="G9">
-        <v>20.78395983522502</v>
+        <v>28.3705101349591</v>
       </c>
       <c r="H9">
-        <v>8.270989277393875</v>
+        <v>14.22594640950124</v>
       </c>
       <c r="I9">
-        <v>12.49936130928128</v>
+        <v>20.11207626372855</v>
       </c>
       <c r="J9">
-        <v>5.793236872836148</v>
+        <v>10.09392427908987</v>
       </c>
       <c r="K9">
-        <v>17.40584613194396</v>
+        <v>10.77873812865385</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.70580666529532</v>
+        <v>15.14754317718768</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.4065633907871</v>
+        <v>21.59676105722122</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.353983829842107</v>
+        <v>6.655353907525352</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.074894819056597</v>
+        <v>10.13040312862296</v>
       </c>
       <c r="E10">
-        <v>9.906711347105144</v>
+        <v>14.23852962989466</v>
       </c>
       <c r="F10">
-        <v>20.45073603371874</v>
+        <v>29.26370550165017</v>
       </c>
       <c r="G10">
-        <v>21.44530518521567</v>
+        <v>28.26935409109235</v>
       </c>
       <c r="H10">
-        <v>8.187060160420558</v>
+        <v>14.15222194245262</v>
       </c>
       <c r="I10">
-        <v>11.94494078640085</v>
+        <v>19.930874132787</v>
       </c>
       <c r="J10">
-        <v>5.751851744785704</v>
+        <v>10.05520751419566</v>
       </c>
       <c r="K10">
-        <v>18.74042968504554</v>
+        <v>11.4803650648151</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.92897453123352</v>
+        <v>15.43320552644317</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.44357329561406</v>
+        <v>21.48034072730661</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.648897846465259</v>
+        <v>6.771972678508733</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.258789750799377</v>
+        <v>10.15729182446812</v>
       </c>
       <c r="E11">
-        <v>10.04716472507673</v>
+        <v>14.23944233970081</v>
       </c>
       <c r="F11">
-        <v>20.69398902475651</v>
+        <v>29.23225606129325</v>
       </c>
       <c r="G11">
-        <v>21.77655214467514</v>
+        <v>28.23357215662212</v>
       </c>
       <c r="H11">
-        <v>8.156338117483877</v>
+        <v>14.12108922026959</v>
       </c>
       <c r="I11">
-        <v>11.69859637649201</v>
+        <v>19.85227614967103</v>
       </c>
       <c r="J11">
-        <v>5.73632702215997</v>
+        <v>10.03886057705459</v>
       </c>
       <c r="K11">
-        <v>19.3177962823165</v>
+        <v>11.78743704487558</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.45676610404309</v>
+        <v>15.5628194336827</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.47801857402891</v>
+        <v>21.4324041845499</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.758289296506319</v>
+        <v>6.815673995721276</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.327886220832708</v>
+        <v>10.16767778832577</v>
       </c>
       <c r="E12">
-        <v>10.10085031942285</v>
+        <v>14.24016073221159</v>
       </c>
       <c r="F12">
-        <v>20.78907624758225</v>
+        <v>29.22144662795383</v>
       </c>
       <c r="G12">
-        <v>21.90638797510327</v>
+        <v>28.2215016485077</v>
       </c>
       <c r="H12">
-        <v>8.145843043231951</v>
+        <v>14.10964582491724</v>
       </c>
       <c r="I12">
-        <v>11.60613349225745</v>
+        <v>19.82306155387946</v>
       </c>
       <c r="J12">
-        <v>5.730943857375257</v>
+        <v>10.03285205983359</v>
       </c>
       <c r="K12">
-        <v>19.53213976082761</v>
+        <v>11.90141503503798</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.65253164900189</v>
+        <v>15.61181682856017</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.49373021031636</v>
+        <v>21.41497622291207</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.734831530488146</v>
+        <v>6.806283175507284</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.313029871616736</v>
+        <v>10.16543201551013</v>
       </c>
       <c r="E13">
-        <v>10.08926644111652</v>
+        <v>14.2399894579551</v>
       </c>
       <c r="F13">
-        <v>20.7684649501881</v>
+        <v>29.22372568598301</v>
       </c>
       <c r="G13">
-        <v>21.87822957617351</v>
+        <v>28.22403534315409</v>
       </c>
       <c r="H13">
-        <v>8.148051612280389</v>
+        <v>14.11209498008489</v>
       </c>
       <c r="I13">
-        <v>11.62601077745099</v>
+        <v>19.82932906931752</v>
       </c>
       <c r="J13">
-        <v>5.732080827074255</v>
+        <v>10.03413802399592</v>
       </c>
       <c r="K13">
-        <v>19.48616811464731</v>
+        <v>11.87697085212268</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.61055190924706</v>
+        <v>15.60126869634748</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.4902256478025</v>
+        <v>21.41869738692563</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.657943352150889</v>
+        <v>6.775577440157651</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.2644854716215</v>
+        <v>10.1581422334037</v>
       </c>
       <c r="E14">
-        <v>10.05157163949248</v>
+        <v>14.23949397980944</v>
       </c>
       <c r="F14">
-        <v>20.70175220239348</v>
+        <v>29.23134470914716</v>
       </c>
       <c r="G14">
-        <v>21.78714554424398</v>
+        <v>28.2325494202366</v>
       </c>
       <c r="H14">
-        <v>8.155451469306907</v>
+        <v>14.12014083265625</v>
       </c>
       <c r="I14">
-        <v>11.69097303444209</v>
+        <v>19.84986166221831</v>
       </c>
       <c r="J14">
-        <v>5.73587408760503</v>
+        <v>10.03836261244059</v>
       </c>
       <c r="K14">
-        <v>19.33551653391214</v>
+        <v>11.79686045448856</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.47295384426377</v>
+        <v>15.56685237982344</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.47925694534206</v>
+        <v>21.43095584199675</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.610549460617198</v>
+        <v>6.756708306562373</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.234678772945275</v>
+        <v>10.15370339680895</v>
       </c>
       <c r="E15">
-        <v>10.02854659107012</v>
+        <v>14.2392389875663</v>
       </c>
       <c r="F15">
-        <v>20.66127652336158</v>
+        <v>29.23615486936363</v>
       </c>
       <c r="G15">
-        <v>21.73192743824784</v>
+        <v>28.23795740167155</v>
       </c>
       <c r="H15">
-        <v>8.160134408612144</v>
+        <v>14.12511419705352</v>
       </c>
       <c r="I15">
-        <v>11.73087078488125</v>
+        <v>19.86250986599934</v>
       </c>
       <c r="J15">
-        <v>5.738262764239044</v>
+        <v>10.04097395140062</v>
       </c>
       <c r="K15">
-        <v>19.24267876818629</v>
+        <v>11.74748946113062</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.38813809805984</v>
+        <v>15.54575930973242</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.47288971261688</v>
+        <v>21.43855892327492</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.33439053337373</v>
+        <v>6.647670354994008</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.062803944106793</v>
+        <v>10.12867472696828</v>
       </c>
       <c r="E16">
-        <v>9.897603818201341</v>
+        <v>14.23852222321951</v>
       </c>
       <c r="F16">
-        <v>20.435253518884</v>
+        <v>29.26591457483415</v>
       </c>
       <c r="G16">
-        <v>21.42427201173408</v>
+        <v>28.27189914179743</v>
       </c>
       <c r="H16">
-        <v>8.189223580755558</v>
+        <v>14.15430493756376</v>
       </c>
       <c r="I16">
-        <v>11.96115617812561</v>
+        <v>19.93608760795266</v>
       </c>
       <c r="J16">
-        <v>5.752934526040012</v>
+        <v>10.05630126753177</v>
       </c>
       <c r="K16">
-        <v>18.70209732398943</v>
+        <v>11.45997688493003</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.89390749841685</v>
+        <v>15.42472508244434</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.44168824493789</v>
+        <v>21.48357476857981</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.160903354220466</v>
+        <v>6.580001739342138</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.956456159607712</v>
+        <v>10.11368967769508</v>
       </c>
       <c r="E17">
-        <v>9.818195094342597</v>
+        <v>14.23874795553785</v>
       </c>
       <c r="F17">
-        <v>20.30186296331378</v>
+        <v>29.28612761400597</v>
       </c>
       <c r="G17">
-        <v>21.24334794942255</v>
+        <v>28.29534831489391</v>
       </c>
       <c r="H17">
-        <v>8.209025108971515</v>
+        <v>14.17282851142905</v>
       </c>
       <c r="I17">
-        <v>12.1039157465575</v>
+        <v>19.98220496900113</v>
       </c>
       <c r="J17">
-        <v>5.762795380417415</v>
+        <v>10.06602801761094</v>
       </c>
       <c r="K17">
-        <v>18.36283558017854</v>
+        <v>11.27953541365289</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.58339162234302</v>
+        <v>15.35036255165039</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.42715499188345</v>
+        <v>21.51247876963882</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.059621790284336</v>
+        <v>6.540807802897749</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.894971481729772</v>
+        <v>10.10520820054699</v>
       </c>
       <c r="E18">
-        <v>9.772869210557189</v>
+        <v>14.23912275875843</v>
       </c>
       <c r="F18">
-        <v>20.22706634540047</v>
+        <v>29.29847179811204</v>
       </c>
       <c r="G18">
-        <v>21.14214611665746</v>
+        <v>28.3097985759883</v>
       </c>
       <c r="H18">
-        <v>8.221112218847951</v>
+        <v>14.18370913779388</v>
       </c>
       <c r="I18">
-        <v>12.18658046770606</v>
+        <v>20.00909125284102</v>
       </c>
       <c r="J18">
-        <v>5.768776529796894</v>
+        <v>10.07174171884566</v>
       </c>
       <c r="K18">
-        <v>18.16490190020528</v>
+        <v>11.17427100220154</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.4020944123265</v>
+        <v>15.30756176765103</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.42044538827798</v>
+        <v>21.52957630926285</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.025072678708781</v>
+        <v>6.527491832963282</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.874101253762422</v>
+        <v>10.10236030970893</v>
       </c>
       <c r="E19">
-        <v>9.757583322494854</v>
+        <v>14.23929177169641</v>
       </c>
       <c r="F19">
-        <v>20.20207128258615</v>
+        <v>29.30277459351053</v>
       </c>
       <c r="G19">
-        <v>21.10837106541169</v>
+        <v>28.31485632025371</v>
       </c>
       <c r="H19">
-        <v>8.225322585554425</v>
+        <v>14.18743200597704</v>
       </c>
       <c r="I19">
-        <v>12.21466497927963</v>
+        <v>20.01825652293025</v>
       </c>
       <c r="J19">
-        <v>5.770854169967314</v>
+        <v>10.07369674907533</v>
       </c>
       <c r="K19">
-        <v>18.09740484128439</v>
+        <v>11.13837758673495</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.34024661887449</v>
+        <v>15.29306622234862</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.41845274851136</v>
+        <v>21.53544636601245</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.179526240892724</v>
+        <v>6.587233705007291</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.967810201996165</v>
+        <v>10.11527066915948</v>
       </c>
       <c r="E20">
-        <v>9.82661249988341</v>
+        <v>14.23869858175201</v>
       </c>
       <c r="F20">
-        <v>20.31586303574737</v>
+        <v>29.28390155372676</v>
       </c>
       <c r="G20">
-        <v>21.26231126013598</v>
+        <v>28.29275239383712</v>
       </c>
       <c r="H20">
-        <v>8.206844513337531</v>
+        <v>14.17083321784015</v>
       </c>
       <c r="I20">
-        <v>12.08866164663699</v>
+        <v>19.977258372389</v>
       </c>
       <c r="J20">
-        <v>5.761713500516696</v>
+        <v>10.06498026069765</v>
       </c>
       <c r="K20">
-        <v>18.39924043838085</v>
+        <v>11.29889713224701</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.61672553824861</v>
+        <v>15.35828188059932</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.42853036578816</v>
+        <v>21.5093529484591</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.680589301833844</v>
+        <v>6.784609234058026</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.278759197411311</v>
+        <v>10.16027793520381</v>
       </c>
       <c r="E21">
-        <v>10.06263020878847</v>
+        <v>14.23962940855773</v>
       </c>
       <c r="F21">
-        <v>20.72126649718557</v>
+        <v>29.22907695249887</v>
       </c>
       <c r="G21">
-        <v>21.81377959277755</v>
+        <v>28.23000842456798</v>
       </c>
       <c r="H21">
-        <v>8.153246504077973</v>
+        <v>14.11776818275495</v>
       </c>
       <c r="I21">
-        <v>11.67186988822833</v>
+        <v>19.84381586671344</v>
       </c>
       <c r="J21">
-        <v>5.734746289656314</v>
+        <v>10.03711681887589</v>
       </c>
       <c r="K21">
-        <v>19.37988313055649</v>
+        <v>11.82045362328865</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.51348075665958</v>
+        <v>15.5769638681513</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.48240524774322</v>
+        <v>21.42733555499759</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.99474035608913</v>
+        <v>6.910910158041014</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.478811980925052</v>
+        <v>10.1908778344857</v>
       </c>
       <c r="E22">
-        <v>10.2197765985642</v>
+        <v>14.24240977984338</v>
       </c>
       <c r="F22">
-        <v>21.00355474083613</v>
+        <v>29.19965709763975</v>
       </c>
       <c r="G22">
-        <v>22.19984161262849</v>
+        <v>28.19762717016007</v>
       </c>
       <c r="H22">
-        <v>8.124887296955327</v>
+        <v>14.08510326943584</v>
       </c>
       <c r="I22">
-        <v>11.40425681406868</v>
+        <v>19.75980101329496</v>
       </c>
       <c r="J22">
-        <v>5.720021483063537</v>
+        <v>10.01996549026448</v>
       </c>
       <c r="K22">
-        <v>19.99576856685897</v>
+        <v>12.14788060955388</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.07569059789286</v>
+        <v>15.71937583249779</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.5332267103031</v>
+        <v>21.37795674805955</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.828290207695613</v>
+        <v>6.843759846374682</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.372345861562598</v>
+        <v>10.17443962582425</v>
       </c>
       <c r="E23">
-        <v>10.13564931070154</v>
+        <v>14.24072759679141</v>
       </c>
       <c r="F23">
-        <v>20.85129905810451</v>
+        <v>29.21477172601213</v>
       </c>
       <c r="G23">
-        <v>21.99144192118474</v>
+        <v>28.21411814020437</v>
       </c>
       <c r="H23">
-        <v>8.139390098047834</v>
+        <v>14.10235264529824</v>
       </c>
       <c r="I23">
-        <v>11.54665587562776</v>
+        <v>19.80434948274181</v>
       </c>
       <c r="J23">
-        <v>5.727607871355493</v>
+        <v>10.02902266203964</v>
       </c>
       <c r="K23">
-        <v>19.66935085462206</v>
+        <v>11.97436798649763</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.77780497910132</v>
+        <v>15.64342632613692</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.50463005381987</v>
+        <v>21.40392391834886</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.171111635095997</v>
+        <v>6.583965034654788</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.96267810654311</v>
+        <v>10.11455548626003</v>
       </c>
       <c r="E24">
-        <v>9.822805969247815</v>
+        <v>14.23872014031706</v>
       </c>
       <c r="F24">
-        <v>20.30952771399253</v>
+        <v>29.28490570231326</v>
       </c>
       <c r="G24">
-        <v>21.25372918531536</v>
+        <v>28.29392299191554</v>
       </c>
       <c r="H24">
-        <v>8.207828176079673</v>
+        <v>14.17173456997056</v>
       </c>
       <c r="I24">
-        <v>12.09555618483151</v>
+        <v>19.97949356731265</v>
       </c>
       <c r="J24">
-        <v>5.762201648142966</v>
+        <v>10.06545357260872</v>
       </c>
       <c r="K24">
-        <v>18.38279079484887</v>
+        <v>11.29014844993194</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.60166392759037</v>
+        <v>15.35470170112316</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.42790344341422</v>
+        <v>21.51076463644544</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.405070374626163</v>
+        <v>6.293498163438768</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.508975236933142</v>
+        <v>10.0552392945411</v>
       </c>
       <c r="E25">
-        <v>9.49877884388299</v>
+        <v>14.24592384285552</v>
       </c>
       <c r="F25">
-        <v>19.79856755580493</v>
+        <v>29.387999865677</v>
       </c>
       <c r="G25">
-        <v>20.56704375671773</v>
+        <v>28.41678019502652</v>
       </c>
       <c r="H25">
-        <v>8.30808724005146</v>
+        <v>14.25522819967775</v>
       </c>
       <c r="I25">
-        <v>12.70887441771442</v>
+        <v>20.18221864859597</v>
       </c>
       <c r="J25">
-        <v>5.811271152272016</v>
+        <v>10.10930602082432</v>
       </c>
       <c r="K25">
-        <v>16.88817326161882</v>
+        <v>10.52945949032062</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.2298746052718</v>
+        <v>15.04229171714284</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.40762765047304</v>
+        <v>21.64407365067959</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_76/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_76/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.072429246268456</v>
+        <v>7.792042291707084</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.01628844949731</v>
+        <v>7.167045597976501</v>
       </c>
       <c r="E2">
-        <v>14.25931973078596</v>
+        <v>9.272786350300025</v>
       </c>
       <c r="F2">
-        <v>29.487398179572</v>
+        <v>19.48373474099043</v>
       </c>
       <c r="G2">
-        <v>28.53853682931905</v>
+        <v>20.15272308883903</v>
       </c>
       <c r="H2">
-        <v>14.32415445241967</v>
+        <v>8.402369247003712</v>
       </c>
       <c r="I2">
-        <v>20.3434681855076</v>
+        <v>13.17961177708906</v>
       </c>
       <c r="J2">
-        <v>10.1455275034992</v>
+        <v>5.856789837305854</v>
       </c>
       <c r="K2">
-        <v>9.96213452487169</v>
+        <v>15.69686748910304</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.81273801262293</v>
+        <v>13.13055855547837</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.75769422644195</v>
+        <v>13.44125284732727</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.919042429191708</v>
+        <v>7.346305113473379</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.992922786501298</v>
+        <v>6.931805985044602</v>
       </c>
       <c r="E3">
-        <v>14.27345791830484</v>
+        <v>9.127988009517059</v>
       </c>
       <c r="F3">
-        <v>29.56934621847424</v>
+        <v>19.30739291880481</v>
       </c>
       <c r="G3">
-        <v>28.64038434121811</v>
+        <v>19.92677856330462</v>
       </c>
       <c r="H3">
-        <v>14.37551779368246</v>
+        <v>8.477970097737082</v>
       </c>
       <c r="I3">
-        <v>20.46028066720997</v>
+        <v>13.51103053455731</v>
       </c>
       <c r="J3">
-        <v>10.1725361870417</v>
+        <v>5.893157563291333</v>
       </c>
       <c r="K3">
-        <v>9.557865457257082</v>
+        <v>14.83390764938532</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.65813713836883</v>
+        <v>12.32981146366927</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.84430683723154</v>
+        <v>13.4916632043172</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.823446154114829</v>
+        <v>7.057855272268728</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.980097968653466</v>
+        <v>6.786176302867658</v>
       </c>
       <c r="E4">
-        <v>14.28463725997879</v>
+        <v>9.043359481717363</v>
       </c>
       <c r="F4">
-        <v>29.62683088936815</v>
+        <v>19.21683806852991</v>
       </c>
       <c r="G4">
-        <v>28.71238466286596</v>
+        <v>19.81413708648742</v>
       </c>
       <c r="H4">
-        <v>14.40935069746151</v>
+        <v>8.529835151351516</v>
       </c>
       <c r="I4">
-        <v>20.5357378155487</v>
+        <v>13.7207831506739</v>
       </c>
       <c r="J4">
-        <v>10.19033606055065</v>
+        <v>5.91810444431518</v>
       </c>
       <c r="K4">
-        <v>9.300647029068831</v>
+        <v>14.27717437488731</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.5639179455439</v>
+        <v>11.81074634536857</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.90221542536285</v>
+        <v>13.5353501465265</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.784189063495451</v>
+        <v>6.9366336902817</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.97525829078082</v>
+        <v>6.726620428145501</v>
       </c>
       <c r="E5">
-        <v>14.28982154933821</v>
+        <v>9.009969994808605</v>
       </c>
       <c r="F5">
-        <v>29.65205483312161</v>
+        <v>19.18429925578006</v>
       </c>
       <c r="G5">
-        <v>28.74409466151548</v>
+        <v>19.77462455907527</v>
       </c>
       <c r="H5">
-        <v>14.42371527647126</v>
+        <v>8.552293630865684</v>
       </c>
       <c r="I5">
-        <v>20.56742866593846</v>
+        <v>13.8078538183309</v>
       </c>
       <c r="J5">
-        <v>10.19789588641043</v>
+        <v>5.928913523380482</v>
       </c>
       <c r="K5">
-        <v>9.193699190070346</v>
+        <v>14.04365473949577</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.52573517426814</v>
+        <v>11.59236012188418</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.92700063488296</v>
+        <v>13.55622352630236</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.777653955650037</v>
+        <v>6.916284221714773</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.974478119267745</v>
+        <v>6.716721224569662</v>
       </c>
       <c r="E6">
-        <v>14.29072037091546</v>
+        <v>9.004492541235026</v>
       </c>
       <c r="F6">
-        <v>29.65635174846051</v>
+        <v>19.17915676601977</v>
       </c>
       <c r="G6">
-        <v>28.749502850327</v>
+        <v>19.76844395126302</v>
       </c>
       <c r="H6">
-        <v>14.42613538169875</v>
+        <v>8.556101443005701</v>
       </c>
       <c r="I6">
-        <v>20.57274784399664</v>
+        <v>13.8224087558709</v>
       </c>
       <c r="J6">
-        <v>10.19916969580112</v>
+        <v>5.930746772320729</v>
       </c>
       <c r="K6">
-        <v>9.175816193634441</v>
+        <v>14.00448135514411</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.5194087841298</v>
+        <v>11.55568384564492</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.93118783443024</v>
+        <v>13.55987116505452</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.822917862161446</v>
+        <v>7.056235262452032</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.980031129082027</v>
+        <v>6.78537384195619</v>
       </c>
       <c r="E7">
-        <v>14.28470463150907</v>
+        <v>9.042904710146763</v>
       </c>
       <c r="F7">
-        <v>29.62716379193532</v>
+        <v>19.21638170491078</v>
       </c>
       <c r="G7">
-        <v>28.71280273675121</v>
+        <v>19.81357857986962</v>
       </c>
       <c r="H7">
-        <v>14.40954208514283</v>
+        <v>8.530132736789655</v>
       </c>
       <c r="I7">
-        <v>20.53616139414114</v>
+        <v>13.72195093179104</v>
       </c>
       <c r="J7">
-        <v>10.19043677461169</v>
+        <v>5.918247635146405</v>
       </c>
       <c r="K7">
-        <v>9.299213126532436</v>
+        <v>14.27405179116587</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.56340209412468</v>
+        <v>11.80782885328115</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.90254488386282</v>
+        <v>13.53561939258637</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.019867637907661</v>
+        <v>7.641435542534804</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.00791853038011</v>
+        <v>7.086233722793038</v>
       </c>
       <c r="E8">
-        <v>14.26367629279416</v>
+        <v>9.221985710948353</v>
       </c>
       <c r="F8">
-        <v>29.51416376520935</v>
+        <v>19.41920255594903</v>
       </c>
       <c r="G8">
-        <v>28.57168291665021</v>
+        <v>20.06930850184471</v>
       </c>
       <c r="H8">
-        <v>14.34138816862283</v>
+        <v>8.427277525441758</v>
       </c>
       <c r="I8">
-        <v>20.38297171575575</v>
+        <v>13.29259816747206</v>
       </c>
       <c r="J8">
-        <v>10.15458783842349</v>
+        <v>5.868777041588706</v>
       </c>
       <c r="K8">
-        <v>9.82468412601267</v>
+        <v>15.40495462319655</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.75930593104336</v>
+        <v>12.86016084858681</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.78657578997064</v>
+        <v>13.45591174633927</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.392575369561015</v>
+        <v>8.670745426963581</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.07449823020375</v>
+        <v>7.663196566577944</v>
       </c>
       <c r="E9">
-        <v>14.24224226094719</v>
+        <v>9.606042423621453</v>
       </c>
       <c r="F9">
-        <v>29.34961517906467</v>
+        <v>19.96101023779027</v>
       </c>
       <c r="G9">
-        <v>28.3705101349591</v>
+        <v>20.78395983522502</v>
       </c>
       <c r="H9">
-        <v>14.22594640950124</v>
+        <v>8.270989277393932</v>
       </c>
       <c r="I9">
-        <v>20.11207626372855</v>
+        <v>12.49936130928118</v>
       </c>
       <c r="J9">
-        <v>10.09392427908987</v>
+        <v>5.793236872836227</v>
       </c>
       <c r="K9">
-        <v>10.77873812865385</v>
+        <v>17.40584613194388</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.14754317718768</v>
+        <v>14.70580666529523</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.59676105722122</v>
+        <v>13.40656339078711</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.655353907525352</v>
+        <v>9.353983829842097</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.13040312862296</v>
+        <v>8.07489481905659</v>
       </c>
       <c r="E10">
-        <v>14.23852962989466</v>
+        <v>9.906711347105219</v>
       </c>
       <c r="F10">
-        <v>29.26370550165017</v>
+        <v>20.45073603371861</v>
       </c>
       <c r="G10">
-        <v>28.26935409109235</v>
+        <v>21.4453051852155</v>
       </c>
       <c r="H10">
-        <v>14.15222194245262</v>
+        <v>8.187060160420508</v>
       </c>
       <c r="I10">
-        <v>19.930874132787</v>
+        <v>11.94494078640075</v>
       </c>
       <c r="J10">
-        <v>10.05520751419566</v>
+        <v>5.751851744785784</v>
       </c>
       <c r="K10">
-        <v>11.4803650648151</v>
+        <v>18.74042968504557</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.43320552644317</v>
+        <v>15.92897453123352</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.48034072730661</v>
+        <v>13.44357329561395</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.771972678508733</v>
+        <v>9.648897846465267</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.15729182446812</v>
+        <v>8.258789750799409</v>
       </c>
       <c r="E11">
-        <v>14.23944233970081</v>
+        <v>10.04716472507673</v>
       </c>
       <c r="F11">
-        <v>29.23225606129325</v>
+        <v>20.69398902475645</v>
       </c>
       <c r="G11">
-        <v>28.23357215662212</v>
+        <v>21.77655214467506</v>
       </c>
       <c r="H11">
-        <v>14.12108922026959</v>
+        <v>8.156338117483834</v>
       </c>
       <c r="I11">
-        <v>19.85227614967103</v>
+        <v>11.69859637649207</v>
       </c>
       <c r="J11">
-        <v>10.03886057705459</v>
+        <v>5.736327022159998</v>
       </c>
       <c r="K11">
-        <v>11.78743704487558</v>
+        <v>19.31779628231655</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.5628194336827</v>
+        <v>16.45676610404312</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.4324041845499</v>
+        <v>13.47801857402884</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.815673995721276</v>
+        <v>9.758289296506351</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.16767778832577</v>
+        <v>8.327886220832793</v>
       </c>
       <c r="E12">
-        <v>14.24016073221159</v>
+        <v>10.10085031942292</v>
       </c>
       <c r="F12">
-        <v>29.22144662795383</v>
+        <v>20.78907624758222</v>
       </c>
       <c r="G12">
-        <v>28.2215016485077</v>
+        <v>21.9063879751031</v>
       </c>
       <c r="H12">
-        <v>14.10964582491724</v>
+        <v>8.14584304323194</v>
       </c>
       <c r="I12">
-        <v>19.82306155387946</v>
+        <v>11.60613349225735</v>
       </c>
       <c r="J12">
-        <v>10.03285205983359</v>
+        <v>5.730943857375182</v>
       </c>
       <c r="K12">
-        <v>11.90141503503798</v>
+        <v>19.53213976082766</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.61181682856017</v>
+        <v>16.65253164900189</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.41497622291207</v>
+        <v>13.49373021031627</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.806283175507284</v>
+        <v>9.734831530488144</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.16543201551013</v>
+        <v>8.313029871616717</v>
       </c>
       <c r="E13">
-        <v>14.2399894579551</v>
+        <v>10.08926644111651</v>
       </c>
       <c r="F13">
-        <v>29.22372568598301</v>
+        <v>20.76846495018801</v>
       </c>
       <c r="G13">
-        <v>28.22403534315409</v>
+        <v>21.87822957617338</v>
       </c>
       <c r="H13">
-        <v>14.11209498008489</v>
+        <v>8.148051612280382</v>
       </c>
       <c r="I13">
-        <v>19.82932906931752</v>
+        <v>11.62601077745089</v>
       </c>
       <c r="J13">
-        <v>10.03413802399592</v>
+        <v>5.7320808270743</v>
       </c>
       <c r="K13">
-        <v>11.87697085212268</v>
+        <v>19.48616811464731</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.60126869634748</v>
+        <v>16.61055190924705</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.41869738692563</v>
+        <v>13.49022564780241</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.775577440157651</v>
+        <v>9.657943352150939</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.1581422334037</v>
+        <v>8.264485471621494</v>
       </c>
       <c r="E14">
-        <v>14.23949397980944</v>
+        <v>10.05157163949246</v>
       </c>
       <c r="F14">
-        <v>29.23134470914716</v>
+        <v>20.70175220239343</v>
       </c>
       <c r="G14">
-        <v>28.2325494202366</v>
+        <v>21.78714554424398</v>
       </c>
       <c r="H14">
-        <v>14.12014083265625</v>
+        <v>8.155451469306902</v>
       </c>
       <c r="I14">
-        <v>19.84986166221831</v>
+        <v>11.69097303444209</v>
       </c>
       <c r="J14">
-        <v>10.03836261244059</v>
+        <v>5.735874087605001</v>
       </c>
       <c r="K14">
-        <v>11.79686045448856</v>
+        <v>19.33551653391219</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.56685237982344</v>
+        <v>16.47295384426382</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.43095584199675</v>
+        <v>13.47925694534202</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.756708306562373</v>
+        <v>9.610549460617198</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.15370339680895</v>
+        <v>8.234678772945255</v>
       </c>
       <c r="E15">
-        <v>14.2392389875663</v>
+        <v>10.0285465910701</v>
       </c>
       <c r="F15">
-        <v>29.23615486936363</v>
+        <v>20.66127652336153</v>
       </c>
       <c r="G15">
-        <v>28.23795740167155</v>
+        <v>21.7319274382478</v>
       </c>
       <c r="H15">
-        <v>14.12511419705352</v>
+        <v>8.160134408611988</v>
       </c>
       <c r="I15">
-        <v>19.86250986599934</v>
+        <v>11.73087078488125</v>
       </c>
       <c r="J15">
-        <v>10.04097395140062</v>
+        <v>5.73826276423904</v>
       </c>
       <c r="K15">
-        <v>11.74748946113062</v>
+        <v>19.24267876818635</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.54575930973242</v>
+        <v>16.3881380980599</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.43855892327492</v>
+        <v>13.4728897126168</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.647670354994008</v>
+        <v>9.334390533373792</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.12867472696828</v>
+        <v>8.062803944106738</v>
       </c>
       <c r="E16">
-        <v>14.23852222321951</v>
+        <v>9.897603818201363</v>
       </c>
       <c r="F16">
-        <v>29.26591457483415</v>
+        <v>20.4352535188839</v>
       </c>
       <c r="G16">
-        <v>28.27189914179743</v>
+        <v>21.42427201173392</v>
       </c>
       <c r="H16">
-        <v>14.15430493756376</v>
+        <v>8.189223580755558</v>
       </c>
       <c r="I16">
-        <v>19.93608760795266</v>
+        <v>11.96115617812551</v>
       </c>
       <c r="J16">
-        <v>10.05630126753177</v>
+        <v>5.752934526040076</v>
       </c>
       <c r="K16">
-        <v>11.45997688493003</v>
+        <v>18.70209732398943</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.42472508244434</v>
+        <v>15.89390749841687</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.48357476857981</v>
+        <v>13.44168824493782</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.580001739342138</v>
+        <v>9.160903354220384</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.11368967769508</v>
+        <v>7.956456159607674</v>
       </c>
       <c r="E17">
-        <v>14.23874795553785</v>
+        <v>9.81819509434256</v>
       </c>
       <c r="F17">
-        <v>29.28612761400597</v>
+        <v>20.30186296331354</v>
       </c>
       <c r="G17">
-        <v>28.29534831489391</v>
+        <v>21.24334794942227</v>
       </c>
       <c r="H17">
-        <v>14.17282851142905</v>
+        <v>8.20902510897146</v>
       </c>
       <c r="I17">
-        <v>19.98220496900113</v>
+        <v>12.10391574655746</v>
       </c>
       <c r="J17">
-        <v>10.06602801761094</v>
+        <v>5.762795380417385</v>
       </c>
       <c r="K17">
-        <v>11.27953541365289</v>
+        <v>18.36283558017859</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.35036255165039</v>
+        <v>15.58339162234306</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.51247876963882</v>
+        <v>13.42715499188326</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.540807802897749</v>
+        <v>9.059621790284297</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.10520820054699</v>
+        <v>7.894971481729778</v>
       </c>
       <c r="E18">
-        <v>14.23912275875843</v>
+        <v>9.772869210557147</v>
       </c>
       <c r="F18">
-        <v>29.29847179811204</v>
+        <v>20.22706634540039</v>
       </c>
       <c r="G18">
-        <v>28.3097985759883</v>
+        <v>21.1421461166574</v>
       </c>
       <c r="H18">
-        <v>14.18370913779388</v>
+        <v>8.221112218847951</v>
       </c>
       <c r="I18">
-        <v>20.00909125284102</v>
+        <v>12.18658046770613</v>
       </c>
       <c r="J18">
-        <v>10.07174171884566</v>
+        <v>5.76877652979689</v>
       </c>
       <c r="K18">
-        <v>11.17427100220154</v>
+        <v>18.16490190020528</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.30756176765103</v>
+        <v>15.40209441232651</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.52957630926285</v>
+        <v>13.42044538827795</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.527491832963282</v>
+        <v>9.025072678708762</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.10236030970893</v>
+        <v>7.874101253762479</v>
       </c>
       <c r="E19">
-        <v>14.23929177169641</v>
+        <v>9.757583322494902</v>
       </c>
       <c r="F19">
-        <v>29.30277459351053</v>
+        <v>20.20207128258615</v>
       </c>
       <c r="G19">
-        <v>28.31485632025371</v>
+        <v>21.10837106541166</v>
       </c>
       <c r="H19">
-        <v>14.18743200597704</v>
+        <v>8.225322585554434</v>
       </c>
       <c r="I19">
-        <v>20.01825652293025</v>
+        <v>12.21466497927956</v>
       </c>
       <c r="J19">
-        <v>10.07369674907533</v>
+        <v>5.770854169967317</v>
       </c>
       <c r="K19">
-        <v>11.13837758673495</v>
+        <v>18.09740484128439</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.29306622234862</v>
+        <v>15.34024661887448</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.53544636601245</v>
+        <v>13.41845274851132</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.587233705007291</v>
+        <v>9.179526240892731</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.11527066915948</v>
+        <v>7.96781020199602</v>
       </c>
       <c r="E20">
-        <v>14.23869858175201</v>
+        <v>9.826612499883334</v>
       </c>
       <c r="F20">
-        <v>29.28390155372676</v>
+        <v>20.3158630357471</v>
       </c>
       <c r="G20">
-        <v>28.29275239383712</v>
+        <v>21.26231126013572</v>
       </c>
       <c r="H20">
-        <v>14.17083321784015</v>
+        <v>8.206844513337357</v>
       </c>
       <c r="I20">
-        <v>19.977258372389</v>
+        <v>12.08866164663689</v>
       </c>
       <c r="J20">
-        <v>10.06498026069765</v>
+        <v>5.761713500516668</v>
       </c>
       <c r="K20">
-        <v>11.29889713224701</v>
+        <v>18.39924043838091</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.35828188059932</v>
+        <v>15.61672553824866</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.5093529484591</v>
+        <v>13.42853036578798</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.784609234058026</v>
+        <v>9.680589301833891</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.16027793520381</v>
+        <v>8.278759197411325</v>
       </c>
       <c r="E21">
-        <v>14.23962940855773</v>
+        <v>10.06263020878852</v>
       </c>
       <c r="F21">
-        <v>29.22907695249887</v>
+        <v>20.72126649718548</v>
       </c>
       <c r="G21">
-        <v>28.23000842456798</v>
+        <v>21.81377959277746</v>
       </c>
       <c r="H21">
-        <v>14.11776818275495</v>
+        <v>8.153246504077934</v>
       </c>
       <c r="I21">
-        <v>19.84381586671344</v>
+        <v>11.67186988822823</v>
       </c>
       <c r="J21">
-        <v>10.03711681887589</v>
+        <v>5.734746289656339</v>
       </c>
       <c r="K21">
-        <v>11.82045362328865</v>
+        <v>19.37988313055656</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.5769638681513</v>
+        <v>16.51348075665961</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.42733555499759</v>
+        <v>13.48240524774313</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.910910158041014</v>
+        <v>9.994740356089117</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.1908778344857</v>
+        <v>8.478811980925045</v>
       </c>
       <c r="E22">
-        <v>14.24240977984338</v>
+        <v>10.21977659856425</v>
       </c>
       <c r="F22">
-        <v>29.19965709763975</v>
+        <v>21.00355474083603</v>
       </c>
       <c r="G22">
-        <v>28.19762717016007</v>
+        <v>22.19984161262833</v>
       </c>
       <c r="H22">
-        <v>14.08510326943584</v>
+        <v>8.124887296955304</v>
       </c>
       <c r="I22">
-        <v>19.75980101329496</v>
+        <v>11.40425681406858</v>
       </c>
       <c r="J22">
-        <v>10.01996549026448</v>
+        <v>5.720021483063562</v>
       </c>
       <c r="K22">
-        <v>12.14788060955388</v>
+        <v>19.99576856685897</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.71937583249779</v>
+        <v>17.07569059789284</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.37795674805955</v>
+        <v>13.53322671030299</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.843759846374682</v>
+        <v>9.828290207695577</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.17443962582425</v>
+        <v>8.372345861562563</v>
       </c>
       <c r="E23">
-        <v>14.24072759679141</v>
+        <v>10.13564931070145</v>
       </c>
       <c r="F23">
-        <v>29.21477172601213</v>
+        <v>20.85129905810432</v>
       </c>
       <c r="G23">
-        <v>28.21411814020437</v>
+        <v>21.99144192118453</v>
       </c>
       <c r="H23">
-        <v>14.10235264529824</v>
+        <v>8.139390098047741</v>
       </c>
       <c r="I23">
-        <v>19.80434948274181</v>
+        <v>11.54665587562756</v>
       </c>
       <c r="J23">
-        <v>10.02902266203964</v>
+        <v>5.727607871355382</v>
       </c>
       <c r="K23">
-        <v>11.97436798649763</v>
+        <v>19.66935085462206</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.64342632613692</v>
+        <v>16.77780497910137</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.40392391834886</v>
+        <v>13.5046300538197</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.583965034654788</v>
+        <v>9.171111635096004</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.11455548626003</v>
+        <v>7.962678106543179</v>
       </c>
       <c r="E24">
-        <v>14.23872014031706</v>
+        <v>9.822805969247844</v>
       </c>
       <c r="F24">
-        <v>29.28490570231326</v>
+        <v>20.30952771399247</v>
       </c>
       <c r="G24">
-        <v>28.29392299191554</v>
+        <v>21.25372918531523</v>
       </c>
       <c r="H24">
-        <v>14.17173456997056</v>
+        <v>8.207828176079659</v>
       </c>
       <c r="I24">
-        <v>19.97949356731265</v>
+        <v>12.09555618483151</v>
       </c>
       <c r="J24">
-        <v>10.06545357260872</v>
+        <v>5.762201648142961</v>
       </c>
       <c r="K24">
-        <v>11.29014844993194</v>
+        <v>18.38279079484892</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.35470170112316</v>
+        <v>15.60166392759038</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.51076463644544</v>
+        <v>13.42790344341414</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.293498163438768</v>
+        <v>8.405070374626227</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.0552392945411</v>
+        <v>7.50897523693308</v>
       </c>
       <c r="E25">
-        <v>14.24592384285552</v>
+        <v>9.498778843882917</v>
       </c>
       <c r="F25">
-        <v>29.387999865677</v>
+        <v>19.79856755580472</v>
       </c>
       <c r="G25">
-        <v>28.41678019502652</v>
+        <v>20.56704375671754</v>
       </c>
       <c r="H25">
-        <v>14.25522819967775</v>
+        <v>8.308087240051391</v>
       </c>
       <c r="I25">
-        <v>20.18221864859597</v>
+        <v>12.70887441771429</v>
       </c>
       <c r="J25">
-        <v>10.10930602082432</v>
+        <v>5.811271152271924</v>
       </c>
       <c r="K25">
-        <v>10.52945949032062</v>
+        <v>16.88817326161887</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.04229171714284</v>
+        <v>14.22987460527187</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.64407365067959</v>
+        <v>13.40762765047285</v>
       </c>
     </row>
   </sheetData>
